--- a/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837AC8C-5281-40E1-B149-3613D0682298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02916CDA-0643-4164-8F60-8A53AD9AC8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -40,46 +40,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{157D6CFB-FCA4-4598-A66D-C49CC7778B67}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-          </rPr>
-          <t>======
-ID#AAAALKIx6HA
-刘华旭    (2021-01-25 04:41:12)
-刘华旭:旧包装
-8997033170133</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{2B738DAF-E749-428F-AC5F-125670567E8B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="SimSun"/>
-          </rPr>
-          <t>======
-ID#AAAALKIx6HI
-刘华旭    (2021-01-25 04:41:12)
-刘华旭:旧包装
-8997033170072</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -324,7 +284,7 @@
     <t>ADES 600ML</t>
   </si>
   <si>
-    <t>INV/013</t>
+    <t>INV/020</t>
   </si>
 </sst>
 </file>
@@ -436,7 +396,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4A7D6"/>
+          <bgColor rgb="FFB4A7D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -663,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -779,7 +747,7 @@
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -809,10 +777,10 @@
         <v>66</v>
       </c>
       <c r="K2" s="8">
-        <v>8885013130492</v>
+        <v>8885013130072</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
@@ -821,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P2">
         <v>3500</v>
@@ -834,11 +802,11 @@
       </c>
       <c r="S2">
         <f>O2*P2</f>
-        <v>3500</v>
+        <v>80500</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T5" si="0">S2-Q2-R2</f>
-        <v>3500</v>
+        <v>80500</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>28</v>
@@ -867,7 +835,7 @@
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -897,10 +865,10 @@
         <v>66</v>
       </c>
       <c r="K3" s="8">
-        <v>8997033170164</v>
+        <v>8885013130690</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
@@ -909,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>3500</v>
@@ -922,11 +890,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S5" si="1">O3*P3</f>
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>28</v>
@@ -955,7 +923,7 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -985,10 +953,10 @@
         <v>66</v>
       </c>
       <c r="K4" s="8">
-        <v>8885013130546</v>
+        <v>8885013130652</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
@@ -997,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="P4">
         <v>3500</v>
@@ -1010,11 +978,11 @@
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>192500</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>192500</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>28</v>
@@ -1043,7 +1011,7 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1072,11 +1040,11 @@
       <c r="J5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="8">
-        <v>8997033170140</v>
+      <c r="K5" s="9">
+        <v>8885013131178</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -1085,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>3500</v>
@@ -1098,11 +1066,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>28</v>
@@ -1132,13 +1100,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1147,7 +1114,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B24"/>
+      <selection activeCell="B21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1350,7 +1317,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02916CDA-0643-4164-8F60-8A53AD9AC8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9FA42-B2C7-495D-9550-0CCE39EBBCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
     <t>ADES 600ML</t>
   </si>
   <si>
-    <t>INV/020</t>
+    <t>INV/021</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4A7D6"/>
+          <bgColor rgb="FFB4A7D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -777,10 +785,10 @@
         <v>66</v>
       </c>
       <c r="K2" s="8">
-        <v>8885013130072</v>
+        <v>8885013130263</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
@@ -865,10 +873,10 @@
         <v>66</v>
       </c>
       <c r="K3" s="8">
-        <v>8885013130690</v>
+        <v>8885013130164</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
@@ -877,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="P3">
         <v>3500</v>
@@ -890,11 +898,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S5" si="1">O3*P3</f>
-        <v>14000</v>
+        <v>154000</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>154000</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>28</v>
@@ -953,10 +961,10 @@
         <v>66</v>
       </c>
       <c r="K4" s="8">
-        <v>8885013130652</v>
+        <v>8885013130522</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
@@ -965,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="P4">
         <v>3500</v>
@@ -978,11 +986,11 @@
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>192500</v>
+        <v>77000</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>192500</v>
+        <v>77000</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>28</v>
@@ -1040,11 +1048,11 @@
       <c r="J5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="9">
-        <v>8885013131178</v>
+      <c r="K5" s="8">
+        <v>8885013130201</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -1053,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="P5">
         <v>3500</v>
@@ -1066,11 +1074,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>24500</v>
+        <v>112000</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>24500</v>
+        <v>112000</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>28</v>
@@ -1114,7 +1122,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A21:B24"/>
+      <selection activeCell="B16" sqref="A16:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1325,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9FA42-B2C7-495D-9550-0CCE39EBBCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9D86F4-9D4E-4888-B893-2DA0DB1FA7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
     <t>ADES 600ML</t>
   </si>
   <si>
-    <t>INV/021</t>
+    <t>INV/030</t>
   </si>
 </sst>
 </file>
@@ -396,23 +396,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4A7D6"/>
-          <bgColor rgb="FFB4A7D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -755,7 +739,7 @@
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>45417</v>
+        <v>45416</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -785,10 +769,10 @@
         <v>66</v>
       </c>
       <c r="K2" s="8">
-        <v>8885013130263</v>
+        <v>8885013130065</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
@@ -797,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="P2">
         <v>3500</v>
@@ -810,11 +794,11 @@
       </c>
       <c r="S2">
         <f>O2*P2</f>
-        <v>80500</v>
+        <v>129500</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T5" si="0">S2-Q2-R2</f>
-        <v>80500</v>
+        <v>129500</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>28</v>
@@ -843,7 +827,7 @@
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>45417</v>
+        <v>45416</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -873,10 +857,10 @@
         <v>66</v>
       </c>
       <c r="K3" s="8">
-        <v>8885013130164</v>
+        <v>8885013130058</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
@@ -885,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="P3">
         <v>3500</v>
@@ -898,11 +882,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S5" si="1">O3*P3</f>
-        <v>154000</v>
+        <v>308000</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>154000</v>
+        <v>308000</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>28</v>
@@ -931,7 +915,7 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>45417</v>
+        <v>45416</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -961,10 +945,10 @@
         <v>66</v>
       </c>
       <c r="K4" s="8">
-        <v>8885013130522</v>
+        <v>8885013130041</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
@@ -973,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="P4">
         <v>3500</v>
@@ -986,11 +970,11 @@
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>77000</v>
+        <v>339500</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>339500</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>28</v>
@@ -1019,7 +1003,7 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>45417</v>
+        <v>45416</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1049,10 +1033,10 @@
         <v>66</v>
       </c>
       <c r="K5" s="8">
-        <v>8885013130201</v>
+        <v>8885013130034</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -1061,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P5">
         <v>3500</v>
@@ -1074,11 +1058,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>112000</v>
+        <v>192500</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>112000</v>
+        <v>192500</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>28</v>
@@ -1122,7 +1106,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:B19"/>
+      <selection activeCell="B8" sqref="A8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1309,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A24">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_roxy_v5 - 10 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9D86F4-9D4E-4888-B893-2DA0DB1FA7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6442B7-F539-4E96-9E9D-FA3C530A8416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <t>ADES 600ML</t>
   </si>
   <si>
-    <t>INV/030</t>
+    <t>INV/117</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="P2">
         <v>3500</v>
@@ -794,11 +794,11 @@
       </c>
       <c r="S2">
         <f>O2*P2</f>
-        <v>129500</v>
+        <v>234500</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T5" si="0">S2-Q2-R2</f>
-        <v>129500</v>
+        <v>234500</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>28</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="P3">
         <v>3500</v>
@@ -882,11 +882,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S5" si="1">O3*P3</f>
-        <v>308000</v>
+        <v>420000</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>308000</v>
+        <v>420000</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>28</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="P4">
         <v>3500</v>
@@ -970,11 +970,11 @@
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>339500</v>
+        <v>490000</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>339500</v>
+        <v>490000</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>28</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="P5">
         <v>3500</v>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>192500</v>
+        <v>297500</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>192500</v>
+        <v>297500</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>28</v>
@@ -1092,7 +1092,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1309,7 +1309,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"A1:A999"</formula>
     </cfRule>
   </conditionalFormatting>
